--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.045113666666667</v>
+        <v>0.6504219999999999</v>
       </c>
       <c r="H2">
-        <v>6.135341</v>
+        <v>1.951266</v>
       </c>
       <c r="I2">
-        <v>0.3607891451960052</v>
+        <v>0.1521898546336546</v>
       </c>
       <c r="J2">
-        <v>0.3607891451960052</v>
+        <v>0.1521898546336546</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.418393</v>
+        <v>1.01111</v>
       </c>
       <c r="N2">
-        <v>7.255179</v>
+        <v>3.03333</v>
       </c>
       <c r="O2">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754557</v>
       </c>
       <c r="P2">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754556</v>
       </c>
       <c r="Q2">
-        <v>4.945888575671001</v>
+        <v>0.6576481884199999</v>
       </c>
       <c r="R2">
-        <v>44.512997181039</v>
+        <v>5.918833695779999</v>
       </c>
       <c r="S2">
-        <v>0.0331864170628394</v>
+        <v>0.006183797490559363</v>
       </c>
       <c r="T2">
-        <v>0.0331864170628394</v>
+        <v>0.006183797490559362</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.045113666666667</v>
+        <v>0.6504219999999999</v>
       </c>
       <c r="H3">
-        <v>6.135341</v>
+        <v>1.951266</v>
       </c>
       <c r="I3">
-        <v>0.3607891451960052</v>
+        <v>0.1521898546336546</v>
       </c>
       <c r="J3">
-        <v>0.3607891451960052</v>
+        <v>0.1521898546336546</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>30.353977</v>
       </c>
       <c r="O3">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="P3">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="Q3">
-        <v>20.69244440012856</v>
+        <v>6.580964809431332</v>
       </c>
       <c r="R3">
-        <v>186.231999601157</v>
+        <v>59.228683284882</v>
       </c>
       <c r="S3">
-        <v>0.1388442297892078</v>
+        <v>0.06188012738511689</v>
       </c>
       <c r="T3">
-        <v>0.1388442297892078</v>
+        <v>0.06188012738511689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.045113666666667</v>
+        <v>0.6504219999999999</v>
       </c>
       <c r="H4">
-        <v>6.135341</v>
+        <v>1.951266</v>
       </c>
       <c r="I4">
-        <v>0.3607891451960052</v>
+        <v>0.1521898546336546</v>
       </c>
       <c r="J4">
-        <v>0.3607891451960052</v>
+        <v>0.1521898546336546</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>41.266181</v>
       </c>
       <c r="O4">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041227</v>
       </c>
       <c r="P4">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041226</v>
       </c>
       <c r="Q4">
-        <v>28.13134357808012</v>
+        <v>8.946810659460667</v>
       </c>
       <c r="R4">
-        <v>253.182092202721</v>
+        <v>80.521295935146</v>
       </c>
       <c r="S4">
-        <v>0.1887584983439581</v>
+        <v>0.08412592975797836</v>
       </c>
       <c r="T4">
-        <v>0.1887584983439581</v>
+        <v>0.08412592975797835</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>5.611188</v>
       </c>
       <c r="I5">
-        <v>0.3299662923469261</v>
+        <v>0.437647089654669</v>
       </c>
       <c r="J5">
-        <v>0.3299662923469261</v>
+        <v>0.4376470896546689</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.418393</v>
+        <v>1.01111</v>
       </c>
       <c r="N5">
-        <v>7.255179</v>
+        <v>3.03333</v>
       </c>
       <c r="O5">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754557</v>
       </c>
       <c r="P5">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754556</v>
       </c>
       <c r="Q5">
-        <v>4.523352593628</v>
+        <v>1.89117609956</v>
       </c>
       <c r="R5">
-        <v>40.71017334265201</v>
+        <v>17.02058489604</v>
       </c>
       <c r="S5">
-        <v>0.03035124293596716</v>
+        <v>0.01778253209631942</v>
       </c>
       <c r="T5">
-        <v>0.03035124293596716</v>
+        <v>0.01778253209631942</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.611188</v>
       </c>
       <c r="I6">
-        <v>0.3299662923469261</v>
+        <v>0.437647089654669</v>
       </c>
       <c r="J6">
-        <v>0.3299662923469261</v>
+        <v>0.4376470896546689</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>30.353977</v>
       </c>
       <c r="O6">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="P6">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="Q6">
         <v>18.92465238829734</v>
@@ -818,10 +818,10 @@
         <v>170.321871494676</v>
       </c>
       <c r="S6">
-        <v>0.126982522416023</v>
+        <v>0.1779465373874394</v>
       </c>
       <c r="T6">
-        <v>0.1269825224160231</v>
+        <v>0.1779465373874394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.611188</v>
       </c>
       <c r="I7">
-        <v>0.3299662923469261</v>
+        <v>0.437647089654669</v>
       </c>
       <c r="J7">
-        <v>0.3299662923469261</v>
+        <v>0.4376470896546689</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>41.266181</v>
       </c>
       <c r="O7">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041227</v>
       </c>
       <c r="P7">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041226</v>
       </c>
       <c r="Q7">
         <v>25.72803329255867</v>
@@ -880,10 +880,10 @@
         <v>231.552299633028</v>
       </c>
       <c r="S7">
-        <v>0.1726325269949359</v>
+        <v>0.2419180201709101</v>
       </c>
       <c r="T7">
-        <v>0.1726325269949359</v>
+        <v>0.2419180201709101</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.258808</v>
       </c>
       <c r="I8">
-        <v>0.3092445624570686</v>
+        <v>0.4101630557116764</v>
       </c>
       <c r="J8">
-        <v>0.3092445624570686</v>
+        <v>0.4101630557116764</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.418393</v>
+        <v>1.01111</v>
       </c>
       <c r="N8">
-        <v>7.255179</v>
+        <v>3.03333</v>
       </c>
       <c r="O8">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754557</v>
       </c>
       <c r="P8">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754556</v>
       </c>
       <c r="Q8">
-        <v>4.239288151848</v>
+        <v>1.77241111896</v>
       </c>
       <c r="R8">
-        <v>38.153593366632</v>
+        <v>15.95170007064</v>
       </c>
       <c r="S8">
-        <v>0.02844519897775793</v>
+        <v>0.01666579734066678</v>
       </c>
       <c r="T8">
-        <v>0.02844519897775793</v>
+        <v>0.01666579734066678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.258808</v>
       </c>
       <c r="I9">
-        <v>0.3092445624570686</v>
+        <v>0.4101630557116764</v>
       </c>
       <c r="J9">
-        <v>0.3092445624570686</v>
+        <v>0.4101630557116764</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>30.353977</v>
       </c>
       <c r="O9">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="P9">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="Q9">
         <v>17.736193008824</v>
@@ -1004,10 +1004,10 @@
         <v>159.625737079416</v>
       </c>
       <c r="S9">
-        <v>0.1190080789917503</v>
+        <v>0.1667715774957755</v>
       </c>
       <c r="T9">
-        <v>0.1190080789917503</v>
+        <v>0.1667715774957755</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.258808</v>
       </c>
       <c r="I10">
-        <v>0.3092445624570686</v>
+        <v>0.4101630557116764</v>
       </c>
       <c r="J10">
-        <v>0.3092445624570686</v>
+        <v>0.4101630557116764</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>41.266181</v>
       </c>
       <c r="O10">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041227</v>
       </c>
       <c r="P10">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041226</v>
       </c>
       <c r="Q10">
         <v>24.112324752472</v>
@@ -1066,10 +1066,10 @@
         <v>217.010922772248</v>
       </c>
       <c r="S10">
-        <v>0.1617912844875604</v>
+        <v>0.2267256808752342</v>
       </c>
       <c r="T10">
-        <v>0.1617912844875604</v>
+        <v>0.2267256808752341</v>
       </c>
     </row>
   </sheetData>
